--- a/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T10:20:25+00:00</t>
+    <t>2024-01-15T15:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:06:16+00:00</t>
+    <t>2024-01-15T16:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T16:45:58+00:00</t>
+    <t>2024-01-22T13:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T13:43:32+00:00</t>
+    <t>2024-01-23T09:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T09:22:43+00:00</t>
+    <t>2024-01-23T10:11:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T10:11:47+00:00</t>
+    <t>2024-01-23T11:35:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T11:35:49+00:00</t>
+    <t>2024-01-23T17:43:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
+++ b/ig/sd-add-extension-eclaire-description-summary/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-23T17:43:55+00:00</t>
+    <t>2024-01-24T10:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
